--- a/biology/Médecine/Centre_d'éducation_spécialisée_pour_les_enfants_retardés/Centre_d'éducation_spécialisée_pour_les_enfants_retardés.xlsx
+++ b/biology/Médecine/Centre_d'éducation_spécialisée_pour_les_enfants_retardés/Centre_d'éducation_spécialisée_pour_les_enfants_retardés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_d%27%C3%A9ducation_sp%C3%A9cialis%C3%A9e_pour_les_enfants_retard%C3%A9s</t>
+          <t>Centre_d'éducation_spécialisée_pour_les_enfants_retardés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CESER est le Centre d'éducation spécialisé pour enfants retardés de N'Djamena au Tchad.
 Au Tchad, le handicap mental est souvent mal considéré et les personnes le présentant exclues de la société.  Le CESER est une structure d'enseignement pour ces personnes. Il effectue depuis 1998 un travail de sensibilisation pour que les enfants handicapés intellectuels puissent se faire une place au sein de la société.
